--- a/SampleTestcase.xlsx
+++ b/SampleTestcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>UseCaseName</t>
   </si>
@@ -363,6 +363,20 @@
       </rPr>
       <t>"</t>
     </r>
+  </si>
+  <si>
+    <t>Verify SignIn Page Details</t>
+  </si>
+  <si>
+    <t>1. Navigate to Outlook Homepag
+2. Click on Signin button</t>
+  </si>
+  <si>
+    <t>Page Should Display All the details
+MicrosoftImage, Singin Header, Email Entry Field, No account,Create New one link, Signin With security Key</t>
+  </si>
+  <si>
+    <t>Tc005_Singin page Details</t>
   </si>
 </sst>
 </file>
@@ -875,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1369,7 +1383,7 @@
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" ht="56.25">
+    <row r="25" spans="1:11" ht="37.5">
       <c r="A25" s="16" t="s">
         <v>57</v>
       </c>
@@ -6415,8 +6429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:D2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6498,11 +6512,19 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+    <row r="6" spans="1:4" ht="60">
+      <c r="A6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
